--- a/similarities/split_global/harmonic_similarity_timestamps_65.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_65.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,471 +484,503 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:00:07.525011', '0:00:12.935260')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min/C', 'D:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min', 'D']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:05.360000', '0:00:10.320000')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:35.904784', '0:01:44.577437')]</t>
+          <t>('0:00:42.900000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=5.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=95.904784']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:08.180000')]</t>
+          <t>('0:00:10.560000', '0:00:17.340000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'E:min7', 'A:7', 'D']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:06.700000', '0:00:16.050000')]</t>
+          <t>('0:00:09.967000', '0:00:16.743000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:12.240000', '0:01:20.180000')]</t>
+          <t>('0:00:05.463061', '0:00:12.591587')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=6.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=9.967</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=72.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=5.463061</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['E:min', 'D', 'A']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000'), ('0:01:33.320000', '0:01:38.980000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:09.408834', '0:00:16.560579'), ('0:00:16.560579', '0:00:21.866339')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=93.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=9.408834', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=16.560579']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min'], ['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:16.480000'), ('0:00:06.220000', '0:00:14.320000')]</t>
+          <t>('0:00:07.700000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:02.660000', '0:00:10.620000'), ('0:00:02.020000', '0:00:08.580000')]</t>
+          <t>('0:00:00.380000', '0:00:06.260000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=6.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:7', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>['C:7', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:17.660000')]</t>
+          <t>('0:00:40.800000', '0:00:43.900000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:00:14.180000', '0:00:18.920000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=40.8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=14.18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:36.140000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
+          <t>('0:00:33.260000', '0:00:35.860000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=36.14</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=33.26</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:01.920000', '0:00:08.320000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -956,226 +988,250 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_81</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb', 'B:dim7', 'F/5', 'D:7', 'G:min7']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb', 'B:dim7', 'F/5', 'D:7', 'G:min7']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:18.050000', '0:00:21.410000')]</t>
+          <t>('0:01:21.100000', '0:01:27.580000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:07.670000', '0:00:12.130000')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=18.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-81#t=7.67']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>jaah_28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['Bb:min7', 'Ab:7', 'Db:maj6']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C:maj6', 'G:7', 'C:maj6']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:00:15.700000', '0:00:19.460000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.480000', '0:00:13.840000')]</t>
+          <t>('0:00:13.020000', '0:00:18.710000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-28#t=15.7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=7.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=13.02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:01:17.300000', '0:01:20.480000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000')]</t>
+          <t>('0:00:58.460000', '0:01:03.460000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=77.3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=58.46</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:13.460000'), ('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:01:08.640000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>jaah_42</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:7', 'F', 'F:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:12.020000')]</t>
+          <t>('0:00:41.770000', '0:00:54.590000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000')]</t>
+          <t>('0:00:39.160000', '0:00:46.320000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=39.16</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
